--- a/livro_caixa/livro_caixa.xlsx
+++ b/livro_caixa/livro_caixa.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,27 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>250</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/livro_caixa/livro_caixa.xlsx
+++ b/livro_caixa/livro_caixa.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,48 +452,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-07-30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Venda de Produto</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>250</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1750</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
